--- a/Project_Management/Sprint5/burndown_chart.xlsx
+++ b/Project_Management/Sprint5/burndown_chart.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Fazer Pattern</t>
+  </si>
+  <si>
+    <t>Continuação da semana anterior</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -211,105 +214,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -353,60 +257,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -416,255 +266,89 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +479,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -816,8 +500,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="163105280"/>
-        <c:axId val="139985472"/>
+        <c:axId val="226857472"/>
+        <c:axId val="152432000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -888,28 +572,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>11.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,25 +671,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>11.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8571428571428577</c:v>
+                  <c:v>12.428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2142857142857153</c:v>
+                  <c:v>10.357142857142858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5714285714285712</c:v>
+                  <c:v>8.2857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9285714285714288</c:v>
+                  <c:v>6.2142857142857135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2857142857142865</c:v>
+                  <c:v>4.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6428571428571423</c:v>
+                  <c:v>2.0714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1030,11 +714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163105280"/>
-        <c:axId val="139985472"/>
+        <c:axId val="226857472"/>
+        <c:axId val="152432000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163105280"/>
+        <c:axId val="226857472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +760,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139985472"/>
+        <c:crossAx val="152432000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1084,7 +768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139985472"/>
+        <c:axId val="152432000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +819,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163105280"/>
+        <c:crossAx val="226857472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1786,7 +1470,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD243FA-9869-A358-6FBF-B8B472C97EDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6FD243FA-9869-A358-6FBF-B8B472C97EDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +1780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2107,7 +1791,7 @@
   <dimension ref="B2:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2116,323 +1800,330 @@
     <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="43"/>
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
-        <v>44518</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44519</v>
-      </c>
-      <c r="G4" s="2">
-        <v>44520</v>
-      </c>
-      <c r="H4" s="2">
-        <v>44521</v>
-      </c>
-      <c r="I4" s="2">
-        <v>44522</v>
-      </c>
-      <c r="J4" s="2">
-        <v>44523</v>
-      </c>
-      <c r="K4" s="2">
-        <v>44524</v>
+      <c r="E4" s="13">
+        <v>45248</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45249</v>
+      </c>
+      <c r="G4" s="13">
+        <v>45250</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45251</v>
+      </c>
+      <c r="I4" s="13">
+        <v>45252</v>
+      </c>
+      <c r="J4" s="13">
+        <v>45253</v>
+      </c>
+      <c r="K4" s="13">
+        <v>45254</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="15">
         <v>3.5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
+      <c r="D7" s="15">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>0.5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="1">
         <v>0.5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="1">
         <v>0.5</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="1">
         <v>0.5</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="28">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="D8" s="15">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="1">
         <v>0.5</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="1">
         <v>0.5</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+    <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="17">
         <v>0</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f t="shared" ref="E10:K10" si="0">SUM(E6:E9)</f>
         <v>2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="17">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="7">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19">
         <f>SUM(D6:D9)</f>
-        <v>11.5</v>
-      </c>
-      <c r="E11" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="E11" s="2">
         <f>D11-SUM(E6:E9)</f>
-        <v>9.5</v>
-      </c>
-      <c r="F11" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" ref="F11:K11" si="1">E11-SUM(F6:F9)</f>
-        <v>8</v>
-      </c>
-      <c r="G11" s="6">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H11" s="6">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I11" s="13">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="J11" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="21">
         <f>D11</f>
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="E12" s="22">
         <f>$D$12-($D$12/7*1)</f>
-        <v>9.8571428571428577</v>
-      </c>
-      <c r="F12" s="23">
+        <v>12.428571428571429</v>
+      </c>
+      <c r="F12" s="22">
         <f>$D$12-($D$12/7*2)</f>
-        <v>8.2142857142857153</v>
-      </c>
-      <c r="G12" s="23">
+        <v>10.357142857142858</v>
+      </c>
+      <c r="G12" s="22">
         <f>$D$12-($D$12/7*3)</f>
-        <v>6.5714285714285712</v>
-      </c>
-      <c r="H12" s="23">
+        <v>8.2857142857142847</v>
+      </c>
+      <c r="H12" s="22">
         <f>$D$12-($D$12/7*4)</f>
-        <v>4.9285714285714288</v>
-      </c>
-      <c r="I12" s="24">
+        <v>6.2142857142857135</v>
+      </c>
+      <c r="I12" s="22">
         <f>$D$12-($D$12/7*5)</f>
-        <v>3.2857142857142865</v>
-      </c>
-      <c r="J12" s="25">
+        <v>4.1428571428571423</v>
+      </c>
+      <c r="J12" s="22">
         <f>$D$12-($D$12/7*6)</f>
-        <v>1.6428571428571423</v>
-      </c>
-      <c r="K12" s="25">
+        <v>2.0714285714285694</v>
+      </c>
+      <c r="K12" s="22">
         <f>$D$12-($D$12/7*7)</f>
         <v>0</v>
       </c>
